--- a/steamcase/operposition/operpsnaddcase.xlsx
+++ b/steamcase/operposition/operpsnaddcase.xlsx
@@ -54,18 +54,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>classify_add_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增一个赛事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/steam-featured/homeConfig/createConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>testOperpsnAddNor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -80,6 +68,18 @@
 "itemId":181
 "position": "03"
 "displayType": "2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operpsn_add_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/steam-featured/homeConfig/createConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一个首页配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -459,7 +459,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -502,22 +502,22 @@
     </row>
     <row r="2" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/operposition/operpsnaddcase.xlsx
+++ b/steamcase/operposition/operpsnaddcase.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\operposition\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -58,10 +53,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>tearInterfaceDelOneOperPsn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"title": "让MakeX成为青少年释放自我的舞台"
 "picPath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180425150543_430837.jpg"
 "listOrder":1
@@ -82,12 +73,17 @@
     <t>新增一个首页配置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>preInterfaceDelOneOperPsn
+tearInterfaceDelOneOperPsn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,7 +198,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -254,7 +250,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -448,21 +444,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
@@ -474,7 +470,7 @@
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -500,24 +496,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="71.25" customHeight="1">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="E2" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/operposition/operpsnaddcase.xlsx
+++ b/steamcase/operposition/operpsnaddcase.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\operposition\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485"/>
   </bookViews>
@@ -10,8 +15,8 @@
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -49,41 +54,40 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>operpsn_add_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一个首页配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/steam-featured/homeConfig/createConfig</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>testOperpsnAddNor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"title": "让MakeX成为青少年释放自我的舞台"
+    <t>tearInterfaceDelOneOperPsn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"title": "风靡全球的少儿编程"
 "picPath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180425150543_430837.jpg"
 "listOrder":1
-"itemId":181
-"position": "03"
+"itemId":2027
+"position": "02"
 "displayType": "2"</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>operpsn_add_1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/steam-featured/homeConfig/createConfig</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增一个首页配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>preInterfaceDelOneOperPsn
-tearInterfaceDelOneOperPsn</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,7 +202,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -250,7 +254,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -444,33 +448,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.25" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-    <col min="5" max="5" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="40.375" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
     <col min="6" max="6" width="45.625" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -496,24 +500,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="71.25" customHeight="1">
+    <row r="2" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>

--- a/steamcase/operposition/operpsnaddcase.xlsx
+++ b/steamcase/operposition/operpsnaddcase.xlsx
@@ -458,8 +458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/operposition/operpsnaddcase.xlsx
+++ b/steamcase/operposition/operpsnaddcase.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\operposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6F491DE6-D507-4CEB-BBB0-190EAEFF3FAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="usermanager" sheetId="1" r:id="rId1"/>
@@ -77,7 +78,7 @@
     <t>"title": "风靡全球的少儿编程"
 "picPath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180425150543_430837.jpg"
 "listOrder":1
-"itemId":2027
+"resourceId":2027
 "position": "02"
 "displayType": "2"</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -86,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +456,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/operposition/operpsnaddcase.xlsx
+++ b/steamcase/operposition/operpsnaddcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\operposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{6F491DE6-D507-4CEB-BBB0-190EAEFF3FAE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C2A18D4-00F9-4AB5-8085-2A6AC1E41FB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -459,13 +459,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
     <col min="3" max="3" width="19.125" customWidth="1"/>
     <col min="4" max="4" width="40.375" customWidth="1"/>

--- a/steamcase/operposition/operpsnaddcase.xlsx
+++ b/steamcase/operposition/operpsnaddcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\operposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{3C2A18D4-00F9-4AB5-8085-2A6AC1E41FB1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{650394B3-3E92-4403-A37E-03F34C952ED5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新增一个首页配置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/steam-featured/homeConfig/createConfig</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -75,10 +71,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"title": "风靡全球的少儿编程"
+    <t>新增一个运营位配置-首页banner-文章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"title": "让MakeX成为青少年释放自我的舞台-接口自动化-勿动"
 "picPath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180425150543_430837.jpg"
 "listOrder":1
-"resourceId":2027
+"resourceId":1696
 "position": "02"
 "displayType": "2"</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,16 +506,16 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>

--- a/steamcase/operposition/operpsnaddcase.xlsx
+++ b/steamcase/operposition/operpsnaddcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\operposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{650394B3-3E92-4403-A37E-03F34C952ED5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FCF52D13-2CED-4E6D-B78C-296AD64C9039}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
   <si>
     <t>caseid</t>
   </si>
@@ -79,8 +79,56 @@
 "picPath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180425150543_430837.jpg"
 "listOrder":1
 "resourceId":1696
-"position": "02"
+"position": "01"
 "displayType": "2"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"title": "石舍学校独立微电影-接口自动化-勿动"
+"picPath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180425150543_430837.jpg"
+"listOrder":1
+"resourceId":1757
+"position": "01"
+"displayType": "1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一个运营位配置-首页banner-视频</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>operpsn_add_2</t>
+  </si>
+  <si>
+    <t>operpsn_add_3</t>
+  </si>
+  <si>
+    <t>operpsn_add_4</t>
+  </si>
+  <si>
+    <t>新增一个运营位配置-首页banner-商品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增一个运营位配置-首页banner-活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"title": "早教学习儿童编程机器人套件益智智能机器人-接口自动化-勿动"
+"picPath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180425150543_430837.jpg"
+"listOrder":1
+"resourceId":1465
+"position": "01"
+"displayType": "1"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"title": "山野少年之户外实战技巧-接口自动化-勿动"
+"picPath": "http://uat-steam.opg.cn/_static/admin/images/resource/20180425150543_430837.jpg"
+"listOrder":1
+"resourceId":1474
+"position": "01"
+"displayType": "1"</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -457,20 +505,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.625" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="19.125" customWidth="1"/>
+    <col min="3" max="3" width="35.5" customWidth="1"/>
     <col min="4" max="4" width="40.375" customWidth="1"/>
     <col min="5" max="5" width="24.25" customWidth="1"/>
-    <col min="6" max="6" width="45.625" customWidth="1"/>
+    <col min="6" max="6" width="60.75" customWidth="1"/>
     <col min="7" max="7" width="14.375" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
@@ -501,7 +549,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -521,6 +569,75 @@
         <v>14</v>
       </c>
       <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/steamcase/operposition/operpsnaddcase.xlsx
+++ b/steamcase/operposition/operpsnaddcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\operposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FCF52D13-2CED-4E6D-B78C-296AD64C9039}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A29AA114-9993-497B-8C2B-2024EC05DCE0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/steamcase/operposition/operpsnaddcase.xlsx
+++ b/steamcase/operposition/operpsnaddcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\litaojun\workspace\steamOmTest\steamcase\operposition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{A29AA114-9993-497B-8C2B-2024EC05DCE0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F50DF1B8-524C-4BD2-85AF-33FD35DB6DE0}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -507,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
